--- a/swu/project/upfile/teacherStore/teachers.xlsx
+++ b/swu/project/upfile/teacherStore/teachers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\斯然\Desktop\a毕设测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FEFDA3-B00E-4945-B8CF-F63F770A6C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141A488E-43BF-4ED4-982C-1EDA265BA6A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,55 +47,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>计算机科学与技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12138</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12139</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12144</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12147</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12148</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玻曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白特曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王德武曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾奎曼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅莱熙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛林岚登</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马航特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛博鸽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛玲艾柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾通木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苟华纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>讲师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>讲师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副教授</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机科学与技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -452,58 +504,156 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
